--- a/Res_Data2Inf.xlsx
+++ b/Res_Data2Inf.xlsx
@@ -51,14 +51,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0E6A47"/>
-        <bgColor rgb="FF0E6A47"/>
+        <fgColor rgb="FF746367"/>
+        <bgColor rgb="FF746367"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF746367"/>
-        <bgColor rgb="FF746367"/>
+        <fgColor rgb="FFBC1466"/>
+        <bgColor rgb="FFBC1466"/>
       </patternFill>
     </fill>
     <fill>
@@ -75,8 +75,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1466"/>
-        <bgColor rgb="FFBC1466"/>
+        <fgColor rgb="FF0E6A47"/>
+        <bgColor rgb="FF0E6A47"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02899885177612305</v>
+        <v>0.2777788639068604</v>
       </c>
     </row>
     <row r="4">
@@ -547,6 +547,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -836,6 +841,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
